--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1152,7 +1152,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1785,7 +1785,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1152,7 +1152,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1785,7 +1785,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>45859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41042</v>
+        <v>41849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47791</v>
+        <v>47793</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9413508727267507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8424755882284324</v>
+        <v>0.8590331307783697</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9810144866209295</v>
+        <v>0.9810635754704836</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>2857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7674</v>
+        <v>6867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05864912727324929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01898551337907049</v>
+        <v>0.01893642452951638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1575244117715677</v>
+        <v>0.1409668692216288</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>88666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81150</v>
+        <v>81033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93585</v>
+        <v>93641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.897751478296487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8216503930381582</v>
+        <v>0.8204606902207895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9475535144699119</v>
+        <v>0.94811940237096</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>10099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5180</v>
+        <v>5124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17615</v>
+        <v>17732</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.102248521703513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05244648553008809</v>
+        <v>0.05188059762904002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1783496069618417</v>
+        <v>0.1795393097792104</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>41604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36102</v>
+        <v>36272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44708</v>
+        <v>44688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8906699320172486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7728801299654466</v>
+        <v>0.7765276743544515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9571125906544605</v>
+        <v>0.956685356025626</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>5107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2003</v>
+        <v>2023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10609</v>
+        <v>10439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1093300679827513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04288740934553944</v>
+        <v>0.043314643974374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2271198700345535</v>
+        <v>0.2234723256455485</v>
       </c>
     </row>
     <row r="12">
@@ -1026,19 +1026,19 @@
         <v>193115</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9144670599223602</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
     </row>
     <row r="20">
@@ -1055,19 +1055,19 @@
         <v>18063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11015</v>
+        <v>11165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27093</v>
+        <v>27246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08553294007763979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05216143688963878</v>
+        <v>0.0528698738353136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1282940237792254</v>
+        <v>0.129017568104775</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>63317</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59282</v>
+        <v>59214</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>65208</v>
@@ -1245,7 +1245,7 @@
         <v>0.9709980060880266</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9091240493637356</v>
+        <v>0.9080811826715988</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5926</v>
+        <v>5994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02900199391197349</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09087595063626439</v>
+        <v>0.09191881732840136</v>
       </c>
     </row>
     <row r="6">
@@ -1327,7 +1327,7 @@
         <v>96535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91885</v>
+        <v>92633</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>97504</v>
@@ -1336,7 +1336,7 @@
         <v>0.9900642187198393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9423757743282879</v>
+        <v>0.9500470853104352</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5619</v>
+        <v>4871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009935781280160722</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05762422567171029</v>
+        <v>0.04995291468956514</v>
       </c>
     </row>
     <row r="9">
@@ -1418,7 +1418,7 @@
         <v>49505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46064</v>
+        <v>45737</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>50569</v>
@@ -1427,7 +1427,7 @@
         <v>0.9789519183964669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9109194130490719</v>
+        <v>0.9044527283514439</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4505</v>
+        <v>4832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02104808160353311</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08908058695092817</v>
+        <v>0.09554727164855589</v>
       </c>
     </row>
     <row r="12">
@@ -1659,19 +1659,19 @@
         <v>221064</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9825576696208269</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
     </row>
     <row r="20">
@@ -1688,19 +1688,19 @@
         <v>3924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9912</v>
+        <v>9999</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01744233037917304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004541656458481174</v>
+        <v>0.004396352288719373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04405352573317721</v>
+        <v>0.04444156029100683</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +1944,19 @@
         <v>58464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52940</v>
+        <v>53889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61175</v>
+        <v>61151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9297846987554349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8419308858854591</v>
+        <v>0.8570208298819634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9728971737781987</v>
+        <v>0.9725152278042941</v>
       </c>
     </row>
     <row r="8">
@@ -1973,19 +1973,19 @@
         <v>4415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1704</v>
+        <v>1728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9939</v>
+        <v>8990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07021530124456514</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0271028262218012</v>
+        <v>0.02748477219570575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1580691141145409</v>
+        <v>0.1429791701180366</v>
       </c>
     </row>
     <row r="9">
@@ -2035,7 +2035,7 @@
         <v>33304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29869</v>
+        <v>30618</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>34131</v>
@@ -2044,7 +2044,7 @@
         <v>0.9757771626234909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8751254615441051</v>
+        <v>0.8970718171648948</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4262</v>
+        <v>3513</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02422283737650914</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1248745384558963</v>
+        <v>0.1029281828351053</v>
       </c>
     </row>
     <row r="12">
@@ -2126,7 +2126,7 @@
         <v>15043</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11537</v>
+        <v>10260</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>16155</v>
@@ -2135,7 +2135,7 @@
         <v>0.9311598018369571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7141439277421681</v>
+        <v>0.6351116586164922</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4618</v>
+        <v>5895</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06884019816304288</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2858560722578318</v>
+        <v>0.3648883413835086</v>
       </c>
     </row>
     <row r="15">
@@ -2272,19 +2272,19 @@
         <v>140279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9566675311262756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="20">
@@ -2301,19 +2301,19 @@
         <v>6354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2651</v>
+        <v>2731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12067</v>
+        <v>12838</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04333246887372447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01808194512684678</v>
+        <v>0.01862209815638373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08229133422637454</v>
+        <v>0.08755474168948214</v>
       </c>
     </row>
     <row r="21">
